--- a/medicine/Enfance/François_Poirié/François_Poirié.xlsx
+++ b/medicine/Enfance/François_Poirié/François_Poirié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Poiri%C3%A9</t>
+          <t>François_Poirié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Poirié, né le 8 novembre 1962 à Paris et mort le 31 juillet 2017 à Paris, est un écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Poiri%C3%A9</t>
+          <t>François_Poirié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de philosophie jusqu'au doctorat, il publie ses premiers textes à 16 ans[réf. nécessaire] dans les revues Minuit (Éditions de Minuit), Digraphe et la Nouvelle Revue française[réf. nécessaire]. Il enseigne à la Sorbonne[réf. nécessaire] et collabore en tant que critique à Art Press, le Magazine littéraire, Le Monde des livres et fréquemment à l'Encyclopædia Universalis.
 Il travaille à France Culture de 1987 à 2014 à l'émission Du Jour au lendemain, animé par Alain Veinstein.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Poiri%C3%A9</t>
+          <t>François_Poirié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +561,89 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Passade légendaire, roman, éditions Flammarion, 1983
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Passade légendaire, roman, éditions Flammarion, 1983
 Ils dansent, roman, Ubacs, réédition Faculté de Rennes, 1990
-Rire le cœur, roman, Actes Sud, 1996
-Contes
-L'Aigle de Raphaël, conte, L'École des loisirs, 1995
+Rire le cœur, roman, Actes Sud, 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Poirié</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Poiri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Aigle de Raphaël, conte, L'École des loisirs, 1995
 Clara n'aime plus la mer, conte, L'École des loisirs, 1996
-Trois fois oui, conte, L'École des loisirs, 1997
-Essais
-Emmanuel Levinas, essai et entretien, La Manufacture. Réédition Babel chez Actes Sud, 1987
+Trois fois oui, conte, L'École des loisirs, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Poirié</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Poiri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Emmanuel Levinas, essai et entretien, La Manufacture. Réédition Babel chez Actes Sud, 1987
 Comme une apparition. Delphine Seyrig. Portrait, Actes Sud, 2007
 À la lisière, essai sur dix thèmes délaissés, Actes Sud, 2012</t>
         </is>
